--- a/학점은행계획/학점은행시간표.xlsx
+++ b/학점은행계획/학점은행시간표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행계획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhseo\Desktop\jhseo\myspace\git\TIL\학점은행계획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B9224-97AB-4700-A1AC-48ACA738026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E0A9CE-EA21-4071-A60E-F60872801D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="3990" yWindow="2355" windowWidth="22845" windowHeight="11130" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,7 +529,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +615,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -644,7 +637,9 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -708,7 +703,9 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -728,7 +725,9 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
